--- a/tests/Unit/A015/A015_ジョギングランキング.xlsx
+++ b/tests/Unit/A015/A015_ジョギングランキング.xlsx
@@ -210,24 +210,24 @@
     <t xml:space="preserve">step5</t>
   </si>
   <si>
+    <t xml:space="preserve">selectMBlock</t>
+  </si>
+  <si>
     <t xml:space="preserve">selectBlock</t>
   </si>
   <si>
-    <t xml:space="preserve">selectMBlock</t>
-  </si>
-  <si>
     <t xml:space="preserve">配列Mから縦２ブロック、横２ブロック取り出す</t>
   </si>
   <si>
     <t xml:space="preserve">step6</t>
   </si>
   <si>
+    <t xml:space="preserve">makeMList</t>
+  </si>
+  <si>
     <t xml:space="preserve">makeList</t>
   </si>
   <si>
-    <t xml:space="preserve">makeMList</t>
-  </si>
-  <si>
     <t xml:space="preserve">４ブロックを１次元に変換して１次元配列Mとする</t>
   </si>
   <si>
@@ -252,22 +252,22 @@
     <t xml:space="preserve">step9</t>
   </si>
   <si>
+    <t xml:space="preserve">compMListBList</t>
+  </si>
+  <si>
     <t xml:space="preserve">compList</t>
   </si>
   <si>
-    <t xml:space="preserve">compMListBList</t>
-  </si>
-  <si>
     <t xml:space="preserve">１次元配列Mと１次元配列Bを比較する。</t>
   </si>
   <si>
     <t xml:space="preserve">step10</t>
   </si>
   <si>
+    <t xml:space="preserve">jugeMListBList</t>
+  </si>
+  <si>
     <t xml:space="preserve">setNull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jugeMListBList</t>
   </si>
   <si>
     <t xml:space="preserve">同一にならない場合、１次元配列Bの内容を１つずらす(３回ずらしを行う)</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">step14</t>
   </si>
   <si>
+    <t xml:space="preserve">shiftMListBList</t>
+  </si>
+  <si>
     <t xml:space="preserve">shiftList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shiftMListBList</t>
   </si>
   <si>
     <t xml:space="preserve">１次元配列Mと１次元配列Bが同一になる場合、配列Mから次の縦２ブロック、横２ブロック取り出す</t>
@@ -489,9 +489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
+      <xdr:colOff>118800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -501,7 +501,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334600" y="194400"/>
-          <a:ext cx="4295160" cy="3061800"/>
+          <a:ext cx="4294800" cy="3018600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,8 +817,8 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -933,7 +933,7 @@
       <c r="D11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1081,10 +1081,10 @@
       <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1109,7 +1109,7 @@
       <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1120,7 +1120,7 @@
       <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1145,10 +1145,10 @@
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1159,7 +1159,7 @@
       <c r="A39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1170,7 +1170,7 @@
       <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1181,7 +1181,7 @@
       <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1192,10 +1192,10 @@
       <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D42" s="2" t="s">
